--- a/Docs/Excel/English and Spanish Translations.xlsx
+++ b/Docs/Excel/English and Spanish Translations.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\OnSiteX\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Bald Builders\SESA\_A\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$C$85</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -284,9 +288,6 @@
     <t>es</t>
   </si>
   <si>
-    <t>OnSite Home</t>
-  </si>
-  <si>
     <t>Report History</t>
   </si>
   <si>
@@ -302,9 +303,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>&lt;p&gt;Shifts are numbered 1 through 7: Wednesday = Shift 1, Tuesday = Shift 2 etc.&lt;/p&gt;\n&lt;p&gt;Every payroll period has 7 shifts. If you do not work a shift, that shift still exists and you will have \"0\" hours for that shift.&lt;/p&gt;\n&lt;p&gt;A green checkbox will be displayed at the end of the shifts above when the hours in the work orders you have submitted for that shift are equal to the number of hours you should have worked for that shift.&lt;/p&gt;\n&lt;p&gt;If submitted hours are not equal to shift hours, that is not necessarily bad. The most important number(s) are the number of hours you worked and your total number of hours for the pay period (Wednesday through Tuesday of shifts 1 through 7).&lt;/p&gt;\n&lt;p&gt;The number of hours submitted is the total of all shift hour submitted: this number is what will be used to calculate the hours in your paycheck.&lt;/p&gt;\n&lt;p&gt;Payroll Hours are the hours calculated from your hours submitted. This is the number of hours you should be paid for in your paycheck. However, payroll hours displayed here are &lt;b&gt;&lt;i&gt;UNVERIFIED&lt;/i&gt;&lt;/b&gt; hours.&lt;/p&gt;\n&lt;p&gt;If you made a mistake and submitted &lt;b&gt;&lt;i&gt;too many&lt;/i&gt;&lt;/b&gt; hours, then do not expect to see all of those hours on your paycheck.&lt;/p&gt;\n&lt;p&gt;If you submitted &lt;b&gt;&lt;i&gt;too few&lt;/i&gt;&lt;/b&gt; hours, it is &lt;b&gt;&lt;i&gt;your&lt;/i&gt;&lt;/b&gt; responsibility to correct this by submitting the appropriate work reports.&lt;/p&gt;\n&lt;p&gt;Too few hours do not trigger a flag; too many hours will trigger a flag for your submitted hours. It is your responsibility to make sure you document all hours worked. The hours you see on this screen will be the hours you are paid unless the hours are flagged.&lt;/p&gt;\n</t>
-  </si>
-  <si>
     <t>Hours Submitted for Payroll</t>
   </si>
   <si>
@@ -512,12 +510,6 @@
     <t>Fetching Reports...</t>
   </si>
   <si>
-    <t>Casa de OnSite</t>
-  </si>
-  <si>
-    <t>Informes de Trabajo</t>
-  </si>
-  <si>
     <t>Ajustes de Aplicacion</t>
   </si>
   <si>
@@ -530,9 +522,6 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>&lt;p&gt;Los turnos se numeran de 1 a 7: Mi&amp;eacute;rcoles = Turno 1, Martes = Turno 2, etc.&lt;/p&gt;\n&lt;p&gt;Cada per&amp;iacute;odo de n&amp;oacute;mina tiene 7 turnos. Si usted no trabaja un turno, ese turno todav&amp;iacute;a existe y usted tendr&amp;aacute; &amp;quot;0&amp;quot; horas para ese cambio.&lt;/p&gt;\n&lt;p&gt;Una casilla de verificaci&amp;oacute;n verde se mostrar&amp;aacute; al final de los turnos cuando las horas en las &amp;oacute;rdenes de trabajo que ha enviado para ese turno son iguales al n&amp;uacute;mero de horas que deber&amp;iacute;a haber trabajado para ese turno.&lt;/p&gt;\n&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no es necesariamente malo. Los n&amp;uacute;meros m&amp;aacute;s importantes son el n&amp;uacute;mero de horas que trabaj&amp;oacute; y el n&amp;uacute;mero total de horas para el per&amp;iacute;odo de pago (de mi&amp;eacute;rcoles a martes de turnos de 1 a 7).&lt;/p&gt;\n&lt;p&gt;El n&amp;uacute;mero de horas declaradas en sus informes es el total de todas las horas de turno informadas: este n&amp;uacute;mero es lo que se utilizar&amp;aacute; para calcular las horas en su cheque de pago.&lt;/p&gt;\n&lt;p&gt;Horas de pago son las horas calculadas a partir de las horas enviadas. El n&amp;uacute;mero de horas de n&amp;oacute;mina deber&amp;iacute;a ser igual a las horas en su cheque. Sin embargo, los horas de n&amp;oacute;mina que se muestran aqu&amp;iacute; son &lt;b&gt;&lt;i&gt;INCONFIRMADO&lt;/i&gt;&lt;/b&gt; horas.&lt;/p&gt;\n&lt;p&gt;Si usted cometi&amp;oacute; un error y envi&amp;oacute; &lt;b&gt;&lt;i&gt;demasiadas horas&lt;/i&gt;&lt;/b&gt;, entonces no espere ver todas esas horas en su cheque de pago.&lt;/p&gt;\n&lt;p&gt;Si ha enviado &lt;b&gt;&lt;i&gt;menos horas&lt;/i&gt;&lt;/b&gt;, es &lt;b&gt;&lt;i&gt;su&lt;/i&gt;&lt;/b&gt; responsabilidad corregirlo enviando los informes de trabajo apropiados.&lt;/p&gt;\n&lt;p&gt;Menos horas no activan una bandera.&lt;/p&gt;\n&lt;p&gt;Demasiadas horas desencadenar&amp;aacute;n una bandera para las horas enviadas. Es su responsabilidad asegurarse de documentar todas las horas trabajadas. Las horas que ve en esta pantalla ser&amp;aacute;n las horas que le pagan a menos que las horas est&amp;eacute;n marcadas como excepci&amp;oacute;n.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Horas presentadas para la nómina</t>
   </si>
   <si>
@@ -551,18 +540,12 @@
     <t>Confirmar</t>
   </si>
   <si>
-    <t>¿Eliminar este informe?</t>
-  </si>
-  <si>
     <t>Borrar</t>
   </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>informes</t>
-  </si>
-  <si>
     <t>Unidad</t>
   </si>
   <si>
@@ -584,9 +567,6 @@
     <t>Registrarse</t>
   </si>
   <si>
-    <t>Informe</t>
-  </si>
-  <si>
     <t>Añadir</t>
   </si>
   <si>
@@ -608,9 +588,6 @@
     <t>Notas</t>
   </si>
   <si>
-    <t>No hay informes para esta fecha</t>
-  </si>
-  <si>
     <t>Cerrar Sesión</t>
   </si>
   <si>
@@ -659,9 +636,6 @@
     <t>Notas de trabajo</t>
   </si>
   <si>
-    <t>Error al enviar el informe. Vuelve a intentarlo.</t>
-  </si>
-  <si>
     <t>Semana</t>
   </si>
   <si>
@@ -689,12 +663,6 @@
     <t>No hay conexión a Internet. No puedo iniciar sesión ahora mismo.</t>
   </si>
   <si>
-    <t>Obtención de informes...</t>
-  </si>
-  <si>
-    <t>No se pudieron recuperar informes. Por favor, inténtelo de nuevo más tarde.</t>
-  </si>
-  <si>
     <t>Nombre de pila</t>
   </si>
   <si>
@@ -743,14 +711,70 @@
     <t>¿Seguro que quieres salir de la aplicación?</t>
   </si>
   <si>
-    <t>Obtener Informes...</t>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>Obtener Reportes…</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Shifts are numbered 1 through 7: Wednesday = Shift 1, Tuesday = Shift 2 etc.&lt;/p&gt;
+&lt;p&gt;Every payroll period has 7 shifts. If you do not work a shift, that shift stillexists and you will have &amp;ldquo;0&amp;rdquo; hours for that shift.&lt;/p&gt;
+&lt;p&gt;A green checkbox will be displayed at the end of the shifts above when the hoursin the work reports you have submitted for that shift are equal to the number ofhours you should have worked for that shift.&lt;/p&gt;
+&lt;p&gt;If submitted hours are not equal to shift hours, that is not necessarily bad.The most important number(s) are the number of hours you worked and your totalnumber of hours for the pay period (Wednesday through Tuesday of shifts 1through 7).&lt;/p&gt;
+&lt;p&gt;The number of hours submitted is the total of all shift hour submitted: thisnumber is what will be used to calculate the hours in your paycheck.&lt;/p&gt;
+&lt;p&gt;Payroll Hours are the hours calculated from your hours submitted. This is thenumber of hours you should be paid for in your paycheck. However, payroll hoursdisplayed here are UNVERIFIED hours.&lt;/p&gt;
+&lt;p&gt;If you made a mistake and sent too many hours, then do not expect to see allthose hours on your paycheck.&lt;/p&gt;
+&lt;p&gt;If you have submitted fewer hours, it is your responsibility to correct them bysubmitting the appropriate work reports. You will not be paid for hours notsubjected (hours not reported).&lt;/p&gt;
+&lt;p&gt;Too few hours do not trigger a flag.&lt;/p&gt;
+&lt;p&gt;If you submit too many hours, an exception for that shift will be marked with ared flag.&lt;/p&gt;
+&lt;p&gt;It is your responsibility to make sure you document all hours worked. The hoursyou see on this screen will be the hours you are paid unless the hours areflagged.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los turnos se numeran de 1 a 7: Miércoles = Turno 1, Martes = Turno 2, etc.&lt;/p&gt;
+&lt;p&gt;Cada período de nómina tiene 7 turnos. Si usted no trabaja un turno, ese turnotodavía existe y usted tendrá &amp;ldquo;0&amp;rdquo; horas para ese turno.&lt;/p&gt;
+&lt;p&gt;Una casilla de verificación verde se mostrará al final de los turnos cuando lashoras en los reportes que ha enviado para ese turno son iguales al número dehoras que debería haber trabajado para ese turno.&lt;/p&gt;
+&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no esnecesariamente malo. Los números más importantes son el número de horas quetrabajó y el número total de horas para el período de pago (de miércoles amartes de turnos de 1 a 7).&lt;/p&gt;
+&lt;p&gt;El total horas declaradas en sus reportes se utilizará para calcular las horasen su cheque de pago.&lt;/p&gt;
+&lt;p&gt;Horas de pago son calculadas a partir de aver sido enviadas. El número de horassometidas debería ser, las horas mas la compensacion en su cheque. Sin embargo,los horas de nómina que se muestran aquí NO SON CONFIRMADAS.&lt;/p&gt;
+&lt;p&gt;Si usted cometió un error y envió demasiadas horas, entonces no espere ver todasesas horas en su cheque de pago.&lt;/p&gt;
+&lt;p&gt;Si ha sometido menos horas, es su responsabilidad corregirlas enviando losreportes de trabajo apropiados. No se le pagará por horas no sometidas (lashoras no reportadas).&lt;/p&gt;
+&lt;p&gt;Menos horas no activan una bandera.&lt;/p&gt;
+&lt;p&gt;Demasiadas horas activarán un bandera roja de error.&lt;/p&gt;
+&lt;p&gt;Es su responsabilidad asegurarse de documentar todas las horas trabajadas. Lashoras que ve en esta pantalla serán las horas que le pagen a menos las horas queestén marcadas como una excepción (con una bandera roja).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Reportes de Trabajo</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>No hay reportes para esta fecha</t>
+  </si>
+  <si>
+    <t>Obtención de reportes...</t>
+  </si>
+  <si>
+    <t>No se pudieron recuperar reportes. Por favor, inténtelo de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>¿Eliminar este reporte?</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Error al enviar el reporte. Vuelve a intentarlo.</t>
+  </si>
+  <si>
+    <t>OnSiteX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +790,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto Condensed Light"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto Condensed Light"/>
     </font>
   </fonts>
   <fills count="2">
@@ -788,10 +824,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,954 +1126,954 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="65" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="8" spans="1:3" ht="332.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C57" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="C74" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" t="s">
-        <v>239</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Excel/English and Spanish Translations.xlsx
+++ b/Docs/Excel/English and Spanish Translations.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="239">
   <si>
     <t>home_title</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>WO#</t>
-  </si>
-  <si>
     <t>No reports for this date</t>
   </si>
   <si>
@@ -528,9 +525,6 @@
     <t>horas de</t>
   </si>
   <si>
-    <t>horas presentado para este cambio</t>
-  </si>
-  <si>
     <t>Horas presentadas para este período de nómina</t>
   </si>
   <si>
@@ -582,9 +576,6 @@
     <t>notas</t>
   </si>
   <si>
-    <t>OT#</t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
@@ -618,9 +609,6 @@
     <t>Guardar Reporte</t>
   </si>
   <si>
-    <t>Cambio</t>
-  </si>
-  <si>
     <t>horas</t>
   </si>
   <si>
@@ -630,18 +618,12 @@
     <t>Tiempo de reparación</t>
   </si>
   <si>
-    <t>Número de orden de trabajo</t>
-  </si>
-  <si>
     <t>Notas de trabajo</t>
   </si>
   <si>
     <t>Semana</t>
   </si>
   <si>
-    <t>Elija el Cambio</t>
-  </si>
-  <si>
     <t>Seguridad Demasiado Baja</t>
   </si>
   <si>
@@ -663,9 +645,6 @@
     <t>No hay conexión a Internet. No puedo iniciar sesión ahora mismo.</t>
   </si>
   <si>
-    <t>Nombre de pila</t>
-  </si>
-  <si>
     <t>Apellido</t>
   </si>
   <si>
@@ -681,12 +660,6 @@
     <t>Ubicación Auxiliar</t>
   </si>
   <si>
-    <t>Longitud de cambio</t>
-  </si>
-  <si>
-    <t>Hora de inicio de turno</t>
-  </si>
-  <si>
     <t>Actualizar usuario</t>
   </si>
   <si>
@@ -717,57 +690,81 @@
     <t>Obtener Reportes…</t>
   </si>
   <si>
-    <t>&lt;p&gt;Shifts are numbered 1 through 7: Wednesday = Shift 1, Tuesday = Shift 2 etc.&lt;/p&gt;
-&lt;p&gt;Every payroll period has 7 shifts. If you do not work a shift, that shift stillexists and you will have &amp;ldquo;0&amp;rdquo; hours for that shift.&lt;/p&gt;
-&lt;p&gt;A green checkbox will be displayed at the end of the shifts above when the hoursin the work reports you have submitted for that shift are equal to the number ofhours you should have worked for that shift.&lt;/p&gt;
-&lt;p&gt;If submitted hours are not equal to shift hours, that is not necessarily bad.The most important number(s) are the number of hours you worked and your totalnumber of hours for the pay period (Wednesday through Tuesday of shifts 1through 7).&lt;/p&gt;
-&lt;p&gt;The number of hours submitted is the total of all shift hour submitted: thisnumber is what will be used to calculate the hours in your paycheck.&lt;/p&gt;
-&lt;p&gt;Payroll Hours are the hours calculated from your hours submitted. This is thenumber of hours you should be paid for in your paycheck. However, payroll hoursdisplayed here are UNVERIFIED hours.&lt;/p&gt;
-&lt;p&gt;If you made a mistake and sent too many hours, then do not expect to see allthose hours on your paycheck.&lt;/p&gt;
-&lt;p&gt;If you have submitted fewer hours, it is your responsibility to correct them bysubmitting the appropriate work reports. You will not be paid for hours notsubjected (hours not reported).&lt;/p&gt;
-&lt;p&gt;Too few hours do not trigger a flag.&lt;/p&gt;
-&lt;p&gt;If you submit too many hours, an exception for that shift will be marked with ared flag.&lt;/p&gt;
-&lt;p&gt;It is your responsibility to make sure you document all hours worked. The hoursyou see on this screen will be the hours you are paid unless the hours areflagged.&lt;/p&gt;</t>
+    <t>Reportes de Trabajo</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>No hay reportes para esta fecha</t>
+  </si>
+  <si>
+    <t>No se pudieron recuperar reportes. Por favor, inténtelo de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>¿Eliminar este reporte?</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Error al enviar el reporte. Vuelve a intentarlo.</t>
+  </si>
+  <si>
+    <t>OnSiteX</t>
+  </si>
+  <si>
+    <t>horas presentado para este turno</t>
+  </si>
+  <si>
+    <t>WO No.</t>
+  </si>
+  <si>
+    <t>No. OT</t>
+  </si>
+  <si>
+    <t>No. Unidad</t>
+  </si>
+  <si>
+    <t>No. de orden de trabajo</t>
+  </si>
+  <si>
+    <t>Elija el turno</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Longitud de Turno</t>
+  </si>
+  <si>
+    <t>Hora de Inicio de Turno</t>
   </si>
   <si>
     <t>&lt;p&gt;Los turnos se numeran de 1 a 7: Miércoles = Turno 1, Martes = Turno 2, etc.&lt;/p&gt;
-&lt;p&gt;Cada período de nómina tiene 7 turnos. Si usted no trabaja un turno, ese turnotodavía existe y usted tendrá &amp;ldquo;0&amp;rdquo; horas para ese turno.&lt;/p&gt;
-&lt;p&gt;Una casilla de verificación verde se mostrará al final de los turnos cuando lashoras en los reportes que ha enviado para ese turno son iguales al número dehoras que debería haber trabajado para ese turno.&lt;/p&gt;
-&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no esnecesariamente malo. Los números más importantes son el número de horas quetrabajó y el número total de horas para el período de pago (de miércoles amartes de turnos de 1 a 7).&lt;/p&gt;
-&lt;p&gt;El total horas declaradas en sus reportes se utilizará para calcular las horasen su cheque de pago.&lt;/p&gt;
-&lt;p&gt;Horas de pago son calculadas a partir de aver sido enviadas. El número de horassometidas debería ser, las horas mas la compensacion en su cheque. Sin embargo,los horas de nómina que se muestran aquí NO SON CONFIRMADAS.&lt;/p&gt;
-&lt;p&gt;Si usted cometió un error y envió demasiadas horas, entonces no espere ver todasesas horas en su cheque de pago.&lt;/p&gt;
-&lt;p&gt;Si ha sometido menos horas, es su responsabilidad corregirlas enviando losreportes de trabajo apropiados. No se le pagará por horas no sometidas (lashoras no reportadas).&lt;/p&gt;
+&lt;p&gt;Cada período de nómina tiene 7 turnos. Si usted no trabaja un turno, ese turno todavía existe y usted tendrá \"0\" horas para ese turno.&lt;/p&gt;
+&lt;p&gt;Una casilla de verificación verde se mostrará al final de los turnos cuando las horas en los reportes que ha enviado para ese turno son iguales al número de horas que debería haber trabajado para ese turno.&lt;/p&gt;
+&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no es necesariamente malo. Los números más importantes son el número de horas que trabajó y el número total de horas para el período de pago (de miércoles a martes de turnos de 1 a 7).&lt;/p&gt;
+&lt;p&gt;El total horas declaradas en sus reportes se utilizará para calcular las horas en su cheque de pago.&lt;/p&gt;
+&lt;p&gt;Horas de pago son calculadas a partir de aver sido enviadas. El número de horas sometidas debería ser, las horas mas la compensacion en su cheque. Sin embargo,los horas de nómina que se muestran aquí NO SON CONFIRMADAS.&lt;/p&gt;
+&lt;p&gt;Si usted cometió un error y envió demasiadas horas, entonces no espere ver todas esas horas en su cheque de pago.&lt;/p&gt;
+&lt;p&gt;Si ha sometido &lt;b&gt;menos horas&lt;/b&gt;, es &lt;b&gt;su&lt;/b&gt; responsabilidad corregirlas enviando los reportes de trabajo apropiados. &lt;b&gt;No se le pagará por horas no sometidas (las horas no reportadas).&lt;/b&gt;&lt;/p&gt;
 &lt;p&gt;Menos horas no activan una bandera.&lt;/p&gt;
 &lt;p&gt;Demasiadas horas activarán un bandera roja de error.&lt;/p&gt;
-&lt;p&gt;Es su responsabilidad asegurarse de documentar todas las horas trabajadas. Lashoras que ve en esta pantalla serán las horas que le pagen a menos las horas queestén marcadas como una excepción (con una bandera roja).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Reportes de Trabajo</t>
-  </si>
-  <si>
-    <t>Reportes</t>
-  </si>
-  <si>
-    <t>No hay reportes para esta fecha</t>
-  </si>
-  <si>
-    <t>Obtención de reportes...</t>
-  </si>
-  <si>
-    <t>No se pudieron recuperar reportes. Por favor, inténtelo de nuevo más tarde.</t>
-  </si>
-  <si>
-    <t>¿Eliminar este reporte?</t>
-  </si>
-  <si>
-    <t>Reporte</t>
-  </si>
-  <si>
-    <t>Error al enviar el reporte. Vuelve a intentarlo.</t>
-  </si>
-  <si>
-    <t>OnSiteX</t>
+&lt;p&gt;Es &lt;b&gt;su&lt;/b&gt; responsabilidad asegurarse de documentar todas las horas trabajadas. Las horas que ve en esta pantalla serán las horas que le pagen, a menos las horas que estén marcadas como una excepción (con una bandera roja).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Shifts are numbered 1 through 7: Wednesday = Shift 1, Tuesday = Shift 2 etc.&lt;/p&gt;
+&lt;p&gt;Every payroll period has 7 shifts. If you do not work a shift, that shift still exists and you will have \"0\" hours for that shift.&lt;/p&gt;
+&lt;p&gt;A green checkbox will be displayed at the end of the shifts above when the hours in the work reports you have submitted for that shift are equal to the number of hours you should have worked for that shift.&lt;/p&gt;
+&lt;p&gt;If submitted hours are not equal to shift hours, that is not necessarily bad.The most important number(s) are the number of hours you worked and the total hours for the pay period (Wednesday through Tuesday of shifts 1through 7).&lt;/p&gt;
+&lt;p&gt;The number of hours submitted is the total of all shift hour submitted: this number is what will be used to calculate the hours in your paycheck.&lt;/p&gt;
+&lt;p&gt;Payroll Hours are the hours calculated from your hours submitted. This is thenumber of hours you should be paid for in your paycheck. However, payroll hours displayed here are UNVERIFIED hours.&lt;/p&gt;
+&lt;p&gt;If you made a mistake and sent &lt;b&gt;too many hours&lt;/b&gt;, then do not expect to see all of those hours on your paycheck.&lt;/p&gt;
+&lt;p&gt;If you have submitted &lt;b&gt;too few hours&lt;/b&gt;, it is your responsibility to correct them by submitting the appropriate work reports. &lt;b&gt;You will not be paid for hours not submitted (hours not reported).&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;Too few hours do not trigger a flag.&lt;/p&gt;
+&lt;p&gt;If you submit too many hours, an exception for that shift will be marked with a red flag.&lt;/p&gt;
+&lt;p&gt;It is &lt;b&gt;your&lt;/b&gt; responsibility to make sure you document all hours worked. The hours you see on this screen will be the hours you are paid unless the hours are flagged (red flag).&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1126,14 +1123,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="65" style="2" customWidth="1"/>
+    <col min="2" max="3" width="81.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1152,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,7 +1163,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,7 +1174,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,7 +1185,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,7 +1196,7 @@
         <v>89</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,18 +1207,18 @@
         <v>90</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="332.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,7 +1229,7 @@
         <v>91</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,7 +1240,7 @@
         <v>92</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,7 +1251,7 @@
         <v>93</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1265,7 +1262,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,7 +1273,7 @@
         <v>95</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,7 +1284,7 @@
         <v>96</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,7 +1295,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,7 +1306,7 @@
         <v>98</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,7 +1317,7 @@
         <v>99</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,7 +1350,7 @@
         <v>101</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,7 +1361,7 @@
         <v>102</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,7 +1372,7 @@
         <v>103</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,7 +1383,7 @@
         <v>104</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1397,7 +1394,7 @@
         <v>105</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,7 +1405,7 @@
         <v>106</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,7 +1416,7 @@
         <v>107</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,7 +1427,7 @@
         <v>108</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,7 +1438,7 @@
         <v>109</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,7 +1449,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,7 +1460,7 @@
         <v>111</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,7 +1471,7 @@
         <v>112</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,10 +1479,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,7 +1493,7 @@
         <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,7 +1504,7 @@
         <v>112</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,10 +1512,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,7 +1526,7 @@
         <v>90</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,10 +1534,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,10 +1545,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
@@ -1559,10 +1556,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,10 +1567,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,10 +1578,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,10 +1589,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,10 +1600,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,10 +1611,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,10 +1622,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,10 +1633,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,10 +1644,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,10 +1655,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,7 +1680,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,10 +1688,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,10 +1699,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1713,10 +1710,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,10 +1721,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,10 +1732,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1746,10 +1743,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,7 +1757,7 @@
         <v>89</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,21 +1765,21 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,10 +1787,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -1801,10 +1798,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,10 +1809,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1823,10 +1820,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,10 +1831,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,10 +1842,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,10 +1853,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,10 +1864,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,10 +1875,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1889,10 +1886,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,10 +1897,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,10 +1908,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,10 +1919,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,10 +1930,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,10 +1941,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,10 +1952,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,10 +1963,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,10 +1974,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,10 +1985,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,10 +1996,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,10 +2007,10 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,10 +2018,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,10 +2029,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,10 +2040,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2054,10 +2051,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,10 +2062,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Excel/English and Spanish Translations.xlsx
+++ b/Docs/Excel/English and Spanish Translations.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Bald Builders\SESA\_A\_UX\OnSiteX\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="279">
   <si>
     <t>home_title</t>
   </si>
@@ -766,12 +766,132 @@
 &lt;p&gt;If you submit too many hours, an exception for that shift will be marked with a red flag.&lt;/p&gt;
 &lt;p&gt;It is &lt;b&gt;your&lt;/b&gt; responsibility to make sure you document all hours worked. The hours you see on this screen will be the hours you are paid unless the hours are flagged (red flag).&lt;/p&gt;</t>
   </si>
+  <si>
+    <t>spinner_deleting_report</t>
+  </si>
+  <si>
+    <t>Deleting report...</t>
+  </si>
+  <si>
+    <t>Eliminar informe...</t>
+  </si>
+  <si>
+    <t>error_deleting_report_message</t>
+  </si>
+  <si>
+    <t>Error deleting report. Please try again later.</t>
+  </si>
+  <si>
+    <t>Error al eliminar el informe. Por favor, inténtelo de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>error_server_connect_message</t>
+  </si>
+  <si>
+    <t>Could not connect to server. Please try again later.</t>
+  </si>
+  <si>
+    <t>No se pudo conectar al servidor. Por favor, inténtelo de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>error_fetching_reports_title</t>
+  </si>
+  <si>
+    <t>Connection Error</t>
+  </si>
+  <si>
+    <t>Error de Conexión</t>
+  </si>
+  <si>
+    <t>error_fetching_reports_message</t>
+  </si>
+  <si>
+    <t>Could not connect to server to retrieve reports. Please try again later.</t>
+  </si>
+  <si>
+    <t>No se pudo conectar al servidor para recuperar informes. Por favor, inténtelo de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>hours_header</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>payroll_period</t>
+  </si>
+  <si>
+    <t>Payroll Period</t>
+  </si>
+  <si>
+    <t>Período de Nómina</t>
+  </si>
+  <si>
+    <t>pay_period</t>
+  </si>
+  <si>
+    <t>Pay Period</t>
+  </si>
+  <si>
+    <t>Período de Pago</t>
+  </si>
+  <si>
+    <t>messages_title</t>
+  </si>
+  <si>
+    <t>Messages from Tino</t>
+  </si>
+  <si>
+    <t>Mensajes de Tino</t>
+  </si>
+  <si>
+    <t>message_date</t>
+  </si>
+  <si>
+    <t>message_from</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Remitente</t>
+  </si>
+  <si>
+    <t>message_subject</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>message_done</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>messages_no_messages</t>
+  </si>
+  <si>
+    <t>No messages available</t>
+  </si>
+  <si>
+    <t>No hay mensajes disponibles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,12 +921,18 @@
       <name val="Roboto Condensed Light"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -821,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -840,6 +966,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,19 +1251,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="115.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
@@ -1144,7 +1275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1286,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1297,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1308,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1319,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1330,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1341,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="409.5">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1352,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1363,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1374,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1385,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1396,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1276,7 +1407,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1418,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1429,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1440,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1451,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1462,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1342,7 +1473,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1353,7 +1484,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1364,7 +1495,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1506,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1397,7 +1528,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1408,7 +1539,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1419,7 +1550,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -1430,7 +1561,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1572,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1583,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -1474,7 +1605,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1616,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
@@ -1496,7 +1627,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +1638,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -1518,7 +1649,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -1529,7 +1660,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
@@ -1540,7 +1671,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
@@ -1551,7 +1682,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="38.25">
       <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
@@ -1562,7 +1693,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -1573,7 +1704,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -1584,7 +1715,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +1726,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -1606,7 +1737,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1748,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1759,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
         <v>43</v>
       </c>
@@ -1639,7 +1770,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -1650,7 +1781,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
@@ -1661,7 +1792,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
@@ -1672,7 +1803,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
@@ -1683,7 +1814,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
@@ -1694,7 +1825,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
@@ -1705,7 +1836,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
@@ -1716,7 +1847,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
         <v>51</v>
       </c>
@@ -1727,7 +1858,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
         <v>52</v>
       </c>
@@ -1738,7 +1869,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -1749,7 +1880,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
         <v>54</v>
       </c>
@@ -1760,7 +1891,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
         <v>55</v>
       </c>
@@ -1771,7 +1902,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="63.75">
       <c r="A59" s="5" t="s">
         <v>56</v>
       </c>
@@ -1782,7 +1913,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
         <v>57</v>
       </c>
@@ -1793,7 +1924,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="25.5">
       <c r="A61" s="5" t="s">
         <v>58</v>
       </c>
@@ -1804,7 +1935,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
         <v>59</v>
       </c>
@@ -1815,7 +1946,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
@@ -1826,7 +1957,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
         <v>61</v>
       </c>
@@ -1837,7 +1968,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
@@ -1848,7 +1979,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
         <v>63</v>
       </c>
@@ -1859,7 +1990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
         <v>64</v>
       </c>
@@ -1870,7 +2001,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
@@ -1881,7 +2012,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
         <v>66</v>
       </c>
@@ -1892,7 +2023,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
         <v>67</v>
       </c>
@@ -1903,7 +2034,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
         <v>68</v>
       </c>
@@ -1914,7 +2045,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
         <v>69</v>
       </c>
@@ -1925,7 +2056,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
         <v>70</v>
       </c>
@@ -1936,7 +2067,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
         <v>71</v>
       </c>
@@ -1947,7 +2078,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
         <v>72</v>
       </c>
@@ -1958,7 +2089,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
         <v>73</v>
       </c>
@@ -1969,7 +2100,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
         <v>74</v>
       </c>
@@ -1980,7 +2111,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
         <v>75</v>
       </c>
@@ -1991,7 +2122,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
@@ -2002,7 +2133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
         <v>77</v>
       </c>
@@ -2013,7 +2144,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
         <v>78</v>
       </c>
@@ -2024,7 +2155,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
@@ -2035,7 +2166,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
@@ -2046,7 +2177,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
@@ -2057,7 +2188,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
         <v>82</v>
       </c>
@@ -2066,6 +2197,160 @@
       </c>
       <c r="C85" s="6" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Excel/English and Spanish Translations.xlsx
+++ b/Docs/Excel/English and Spanish Translations.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\OnSiteX\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Bald Builders\SESA\_A\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$C$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$D$85</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="279">
   <si>
     <t>home_title</t>
   </si>
@@ -741,32 +741,6 @@
     <t>Hora de Inicio de Turno</t>
   </si>
   <si>
-    <t>&lt;p&gt;Los turnos se numeran de 1 a 7: Miércoles = Turno 1, Martes = Turno 2, etc.&lt;/p&gt;
-&lt;p&gt;Cada período de nómina tiene 7 turnos. Si usted no trabaja un turno, ese turno todavía existe y usted tendrá \"0\" horas para ese turno.&lt;/p&gt;
-&lt;p&gt;Una casilla de verificación verde se mostrará al final de los turnos cuando las horas en los reportes que ha enviado para ese turno son iguales al número de horas que debería haber trabajado para ese turno.&lt;/p&gt;
-&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no es necesariamente malo. Los números más importantes son el número de horas que trabajó y el número total de horas para el período de pago (de miércoles a martes de turnos de 1 a 7).&lt;/p&gt;
-&lt;p&gt;El total horas declaradas en sus reportes se utilizará para calcular las horas en su cheque de pago.&lt;/p&gt;
-&lt;p&gt;Horas de pago son calculadas a partir de aver sido enviadas. El número de horas sometidas debería ser, las horas mas la compensacion en su cheque. Sin embargo,los horas de nómina que se muestran aquí NO SON CONFIRMADAS.&lt;/p&gt;
-&lt;p&gt;Si usted cometió un error y envió demasiadas horas, entonces no espere ver todas esas horas en su cheque de pago.&lt;/p&gt;
-&lt;p&gt;Si ha sometido &lt;b&gt;menos horas&lt;/b&gt;, es &lt;b&gt;su&lt;/b&gt; responsabilidad corregirlas enviando los reportes de trabajo apropiados. &lt;b&gt;No se le pagará por horas no sometidas (las horas no reportadas).&lt;/b&gt;&lt;/p&gt;
-&lt;p&gt;Menos horas no activan una bandera.&lt;/p&gt;
-&lt;p&gt;Demasiadas horas activarán un bandera roja de error.&lt;/p&gt;
-&lt;p&gt;Es &lt;b&gt;su&lt;/b&gt; responsabilidad asegurarse de documentar todas las horas trabajadas. Las horas que ve en esta pantalla serán las horas que le pagen, a menos las horas que estén marcadas como una excepción (con una bandera roja).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Shifts are numbered 1 through 7: Wednesday = Shift 1, Tuesday = Shift 2 etc.&lt;/p&gt;
-&lt;p&gt;Every payroll period has 7 shifts. If you do not work a shift, that shift still exists and you will have \"0\" hours for that shift.&lt;/p&gt;
-&lt;p&gt;A green checkbox will be displayed at the end of the shifts above when the hours in the work reports you have submitted for that shift are equal to the number of hours you should have worked for that shift.&lt;/p&gt;
-&lt;p&gt;If submitted hours are not equal to shift hours, that is not necessarily bad.The most important number(s) are the number of hours you worked and the total hours for the pay period (Wednesday through Tuesday of shifts 1through 7).&lt;/p&gt;
-&lt;p&gt;The number of hours submitted is the total of all shift hour submitted: this number is what will be used to calculate the hours in your paycheck.&lt;/p&gt;
-&lt;p&gt;Payroll Hours are the hours calculated from your hours submitted. This is thenumber of hours you should be paid for in your paycheck. However, payroll hours displayed here are UNVERIFIED hours.&lt;/p&gt;
-&lt;p&gt;If you made a mistake and sent &lt;b&gt;too many hours&lt;/b&gt;, then do not expect to see all of those hours on your paycheck.&lt;/p&gt;
-&lt;p&gt;If you have submitted &lt;b&gt;too few hours&lt;/b&gt;, it is your responsibility to correct them by submitting the appropriate work reports. &lt;b&gt;You will not be paid for hours not submitted (hours not reported).&lt;/b&gt;&lt;/p&gt;
-&lt;p&gt;Too few hours do not trigger a flag.&lt;/p&gt;
-&lt;p&gt;If you submit too many hours, an exception for that shift will be marked with a red flag.&lt;/p&gt;
-&lt;p&gt;It is &lt;b&gt;your&lt;/b&gt; responsibility to make sure you document all hours worked. The hours you see on this screen will be the hours you are paid unless the hours are flagged (red flag).&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>spinner_deleting_report</t>
   </si>
   <si>
@@ -885,13 +859,19 @@
   </si>
   <si>
     <t>No hay mensajes disponibles</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Shifts are numbered 1 through 7: Wednesday = Shift 1, Tuesday = Shift 2 etc.&lt;/p&gt;\n\n&lt;p&gt;Every payroll period has 7 shifts. If you do not work a shift, that shift still exists and you will have \"0\" hours for that shift.&lt;/p&gt;\n\n&lt;p&gt;A green checkbox will be displayed at the end of the shifts above when the hours in the work reports you have submitted for that shift are equal to the number of hours you should have worked for that shift.&lt;/p&gt;\n\n&lt;p&gt;If submitted hours are not equal to shift hours, that is not necessarily bad.The most important number(s) are the number of hours you worked and the total hours for the pay period (Wednesday through Tuesday of shifts 1through 7).&lt;/p&gt;\n\n&lt;p&gt;The number of hours submitted is the total of all shift hour submitted: this number is what will be used to calculate the hours in your paycheck.&lt;/p&gt;\n\n&lt;p&gt;Payroll Hours are the hours calculated from your hours submitted. This is thenumber of hours you should be paid for in your paycheck. However, payroll hours displayed here are UNVERIFIED hours.&lt;/p&gt;\n\n&lt;p&gt;If you made a mistake and sent &lt;b&gt;too many hours&lt;/b&gt;, then do not expect to see all of those hours on your paycheck.&lt;/p&gt;\n\n&lt;p&gt;If you have submitted &lt;b&gt;too few hours&lt;/b&gt;, it is your responsibility to correct them by submitting the appropriate work reports. &lt;b&gt;You will not be paid for hours not submitted (hours not reported).&lt;/b&gt;&lt;/p&gt;\n\n&lt;p&gt;Too few hours do not trigger a flag.&lt;/p&gt;\n\n&lt;p&gt;If you submit too many hours, an exception for that shift will be marked with a red flag.&lt;/p&gt;\n\n&lt;p&gt;It is &lt;b&gt;your&lt;/b&gt; responsibility to make sure you document all hours worked. The hours you see on this screen will be the hours you are paid unless the hours are flagged (red flag).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los turnos se numeran de 1 a 7: Miércoles = Turno 1, Martes = Turno 2, etc.&lt;/p&gt;\n\n&lt;p&gt;Cada período de nómina tiene 7 turnos. Si usted no trabaja un turno, ese turno todavía existe y usted tendrá \"0\" horas para ese turno.&lt;/p&gt;\n\n&lt;p&gt;Una casilla de verificación verde se mostrará al final de los turnos cuando las horas en los reportes que ha enviado para ese turno son iguales al número de horas que debería haber trabajado para ese turno.&lt;/p&gt;\n\n&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no es necesariamente malo. Los números más importantes son el número de horas que trabajó y el número total de horas para el período de pago (de miércoles a martes de turnos de 1 a 7).&lt;/p&gt;\n\n&lt;p&gt;El total horas declaradas en sus reportes se utilizará para calcular las horas en su cheque de pago.&lt;/p&gt;\n\n&lt;p&gt;Horas de pago son calculadas a partir de aver sido enviadas. El número de horas sometidas debería ser, las horas mas la compensacion en su cheque. Sin embargo,los horas de nómina que se muestran aquí NO SON CONFIRMADAS.&lt;/p&gt;\n\n&lt;p&gt;Si usted cometió un error y envió demasiadas horas, entonces no espere ver todas esas horas en su cheque de pago.&lt;/p&gt;\n\n&lt;p&gt;Si ha sometido &lt;b&gt;menos horas&lt;/b&gt;, es &lt;b&gt;su&lt;/b&gt; responsabilidad corregirlas enviando los reportes de trabajo apropiados. &lt;b&gt;No se le pagará por horas no sometidas (las horas no reportadas).&lt;/b&gt;&lt;/p&gt;\n\n&lt;p&gt;Menos horas no activan una bandera.&lt;/p&gt;\n\n&lt;p&gt;Demasiadas horas activarán un bandera roja de error.&lt;/p&gt;\n\n&lt;p&gt;Es &lt;b&gt;su&lt;/b&gt; responsabilidad asegurarse de documentar todas las horas trabajadas. Las horas que ve en esta pantalla serán las horas que le pagen, a menos las horas que estén marcadas como una excepción (con una bandera roja).&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,1106 +1231,1404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:C99"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="115.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="409.5">
+    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="38.25">
+    <row r="39" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="63.75">
+    <row r="59" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="25.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B86" s="8" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="B87" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="7" t="s">
+      <c r="C87" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B87" s="8" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="B88" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="7" t="s">
+      <c r="C88" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B88" s="8" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="B89" s="8" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="7" t="s">
+      <c r="C89" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B89" s="8" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="7" t="s">
+      <c r="C90" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B90" s="8" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="7" t="s">
+      <c r="C91" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B91" s="8" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="B92" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="7" t="s">
+      <c r="C92" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="8" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="B93" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="7" t="s">
+      <c r="C93" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B93" s="8" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="B94" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="7" t="s">
+      <c r="C94" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B94" s="8" t="s">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B96" s="8" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="7" t="s">
+      <c r="C97" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B97" s="8" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="7" t="s">
+      <c r="C98" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B98" s="8" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="B99" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="7" t="s">
+      <c r="C99" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Excel/English and Spanish Translations.xlsx
+++ b/Docs/Excel/English and Spanish Translations.xlsx
@@ -864,7 +864,7 @@
     <t>&lt;p&gt;Shifts are numbered 1 through 7: Wednesday = Shift 1, Tuesday = Shift 2 etc.&lt;/p&gt;\n\n&lt;p&gt;Every payroll period has 7 shifts. If you do not work a shift, that shift still exists and you will have \"0\" hours for that shift.&lt;/p&gt;\n\n&lt;p&gt;A green checkbox will be displayed at the end of the shifts above when the hours in the work reports you have submitted for that shift are equal to the number of hours you should have worked for that shift.&lt;/p&gt;\n\n&lt;p&gt;If submitted hours are not equal to shift hours, that is not necessarily bad.The most important number(s) are the number of hours you worked and the total hours for the pay period (Wednesday through Tuesday of shifts 1through 7).&lt;/p&gt;\n\n&lt;p&gt;The number of hours submitted is the total of all shift hour submitted: this number is what will be used to calculate the hours in your paycheck.&lt;/p&gt;\n\n&lt;p&gt;Payroll Hours are the hours calculated from your hours submitted. This is thenumber of hours you should be paid for in your paycheck. However, payroll hours displayed here are UNVERIFIED hours.&lt;/p&gt;\n\n&lt;p&gt;If you made a mistake and sent &lt;b&gt;too many hours&lt;/b&gt;, then do not expect to see all of those hours on your paycheck.&lt;/p&gt;\n\n&lt;p&gt;If you have submitted &lt;b&gt;too few hours&lt;/b&gt;, it is your responsibility to correct them by submitting the appropriate work reports. &lt;b&gt;You will not be paid for hours not submitted (hours not reported).&lt;/b&gt;&lt;/p&gt;\n\n&lt;p&gt;Too few hours do not trigger a flag.&lt;/p&gt;\n\n&lt;p&gt;If you submit too many hours, an exception for that shift will be marked with a red flag.&lt;/p&gt;\n\n&lt;p&gt;It is &lt;b&gt;your&lt;/b&gt; responsibility to make sure you document all hours worked. The hours you see on this screen will be the hours you are paid unless the hours are flagged (red flag).&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Los turnos se numeran de 1 a 7: Miércoles = Turno 1, Martes = Turno 2, etc.&lt;/p&gt;\n\n&lt;p&gt;Cada período de nómina tiene 7 turnos. Si usted no trabaja un turno, ese turno todavía existe y usted tendrá \"0\" horas para ese turno.&lt;/p&gt;\n\n&lt;p&gt;Una casilla de verificación verde se mostrará al final de los turnos cuando las horas en los reportes que ha enviado para ese turno son iguales al número de horas que debería haber trabajado para ese turno.&lt;/p&gt;\n\n&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no es necesariamente malo. Los números más importantes son el número de horas que trabajó y el número total de horas para el período de pago (de miércoles a martes de turnos de 1 a 7).&lt;/p&gt;\n\n&lt;p&gt;El total horas declaradas en sus reportes se utilizará para calcular las horas en su cheque de pago.&lt;/p&gt;\n\n&lt;p&gt;Horas de pago son calculadas a partir de aver sido enviadas. El número de horas sometidas debería ser, las horas mas la compensacion en su cheque. Sin embargo,los horas de nómina que se muestran aquí NO SON CONFIRMADAS.&lt;/p&gt;\n\n&lt;p&gt;Si usted cometió un error y envió demasiadas horas, entonces no espere ver todas esas horas en su cheque de pago.&lt;/p&gt;\n\n&lt;p&gt;Si ha sometido &lt;b&gt;menos horas&lt;/b&gt;, es &lt;b&gt;su&lt;/b&gt; responsabilidad corregirlas enviando los reportes de trabajo apropiados. &lt;b&gt;No se le pagará por horas no sometidas (las horas no reportadas).&lt;/b&gt;&lt;/p&gt;\n\n&lt;p&gt;Menos horas no activan una bandera.&lt;/p&gt;\n\n&lt;p&gt;Demasiadas horas activarán un bandera roja de error.&lt;/p&gt;\n\n&lt;p&gt;Es &lt;b&gt;su&lt;/b&gt; responsabilidad asegurarse de documentar todas las horas trabajadas. Las horas que ve en esta pantalla serán las horas que le pagen, a menos las horas que estén marcadas como una excepción (con una bandera roja).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Los turnos se numeran de 1 a 7: Miércoles = Turno 1, Martes = Turno 2, etc.&lt;/p&gt;\n\n&lt;p&gt;Cada período de nómina tiene 7 turnos. Si usted no trabaja un turno, ese turno todavía existe y usted tendrá \"0\" horas para ese turno.&lt;/p&gt;\n\n&lt;p&gt;Una casilla de verificación verde se mostrará al final de los turnos cuando las horas enviadas para ese turno son iguales al número de horas que debería haber trabajado para ese turno.&lt;/p&gt;\n\n&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no es necesariamente malo. Los números más importantes son el número de horas trabajadas y el número total de horas para el período de pago (de miércoles a martes de turnos de 1 a 7).&lt;/p&gt;\n\n&lt;p&gt;El total horas declaradas en sus reportes se utilizará para calcular las horas en su cheque de pago.&lt;/p&gt;\n\n&lt;p&gt;Horas de pago son calculadas a partir de aver sido enviadas. El número de horas sometidas seran las horas que se pagaran en su cheque. Sin embargo,las horas de nómina que se muestran aquí NO SON CONFIRMADAS.&lt;/p&gt;\n\n&lt;p&gt;Si usted cometió un error y envió demasiadas horas, entonces no espere ver todas esas horas en su cheque de pago.&lt;/p&gt;\n\n&lt;p&gt;Si ha sometido &lt;b&gt;menos horas&lt;/b&gt;, es &lt;b&gt;su&lt;/b&gt; responsabilidad corregirlas enviando los reportes de trabajo apropiados. &lt;b&gt;No se le pagará por horas no sometidas (las horas no reportadas).&lt;/b&gt;&lt;/p&gt;\n\n&lt;p&gt;Menos horas no activan una bandera.&lt;/p&gt;\n\n&lt;p&gt;Demasiadas horas activarán un bandera roja de error.&lt;/p&gt;\n\n&lt;p&gt;Es &lt;b&gt;su&lt;/b&gt; responsabilidad asegurarse de documentar todas las horas trabajadas. Las horas que ve en esta pantalla serán las horas que le pagen, a menos las horas que estén marcadas como una excepción (con una bandera roja).&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2057,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>56</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>58</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>249</v>
       </c>

--- a/Docs/Excel/English and Spanish Translations.xlsx
+++ b/Docs/Excel/English and Spanish Translations.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="278">
   <si>
     <t>home_title</t>
   </si>
@@ -309,15 +309,6 @@
     <t>hours of</t>
   </si>
   <si>
-    <t>hours submitted for this shift</t>
-  </si>
-  <si>
-    <t>Hours submitted for this payroll period</t>
-  </si>
-  <si>
-    <t>Payroll hours submitted for this payroll period</t>
-  </si>
-  <si>
     <t>Confirm</t>
   </si>
   <si>
@@ -330,9 +321,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Unit #</t>
-  </si>
-  <si>
     <t>Username or password incorrect!</t>
   </si>
   <si>
@@ -519,18 +507,9 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>Horas presentadas para la nómina</t>
-  </si>
-  <si>
     <t>horas de</t>
   </si>
   <si>
-    <t>Horas presentadas para este período de nómina</t>
-  </si>
-  <si>
-    <t>Horas de nómina para este período de nómina</t>
-  </si>
-  <si>
     <t>Confirmar</t>
   </si>
   <si>
@@ -615,15 +594,9 @@
     <t>de</t>
   </si>
   <si>
-    <t>Tiempo de reparación</t>
-  </si>
-  <si>
     <t>Notas de trabajo</t>
   </si>
   <si>
-    <t>Semana</t>
-  </si>
-  <si>
     <t>Seguridad Demasiado Baja</t>
   </si>
   <si>
@@ -714,9 +687,6 @@
     <t>OnSiteX</t>
   </si>
   <si>
-    <t>horas presentado para este turno</t>
-  </si>
-  <si>
     <t>WO No.</t>
   </si>
   <si>
@@ -865,6 +835,33 @@
   </si>
   <si>
     <t>&lt;p&gt;Los turnos se numeran de 1 a 7: Miércoles = Turno 1, Martes = Turno 2, etc.&lt;/p&gt;\n\n&lt;p&gt;Cada período de nómina tiene 7 turnos. Si usted no trabaja un turno, ese turno todavía existe y usted tendrá \"0\" horas para ese turno.&lt;/p&gt;\n\n&lt;p&gt;Una casilla de verificación verde se mostrará al final de los turnos cuando las horas enviadas para ese turno son iguales al número de horas que debería haber trabajado para ese turno.&lt;/p&gt;\n\n&lt;p&gt;Si las horas presentadas no son iguales a las horas de turno, eso no es necesariamente malo. Los números más importantes son el número de horas trabajadas y el número total de horas para el período de pago (de miércoles a martes de turnos de 1 a 7).&lt;/p&gt;\n\n&lt;p&gt;El total horas declaradas en sus reportes se utilizará para calcular las horas en su cheque de pago.&lt;/p&gt;\n\n&lt;p&gt;Horas de pago son calculadas a partir de aver sido enviadas. El número de horas sometidas seran las horas que se pagaran en su cheque. Sin embargo,las horas de nómina que se muestran aquí NO SON CONFIRMADAS.&lt;/p&gt;\n\n&lt;p&gt;Si usted cometió un error y envió demasiadas horas, entonces no espere ver todas esas horas en su cheque de pago.&lt;/p&gt;\n\n&lt;p&gt;Si ha sometido &lt;b&gt;menos horas&lt;/b&gt;, es &lt;b&gt;su&lt;/b&gt; responsabilidad corregirlas enviando los reportes de trabajo apropiados. &lt;b&gt;No se le pagará por horas no sometidas (las horas no reportadas).&lt;/b&gt;&lt;/p&gt;\n\n&lt;p&gt;Menos horas no activan una bandera.&lt;/p&gt;\n\n&lt;p&gt;Demasiadas horas activarán un bandera roja de error.&lt;/p&gt;\n\n&lt;p&gt;Es &lt;b&gt;su&lt;/b&gt; responsabilidad asegurarse de documentar todas las horas trabajadas. Las horas que ve en esta pantalla serán las horas que le pagen, a menos las horas que estén marcadas como una excepción (con una bandera roja).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Horas Sometidas</t>
+  </si>
+  <si>
+    <t>Horas de Nómina</t>
+  </si>
+  <si>
+    <t>Payroll Hours</t>
+  </si>
+  <si>
+    <t>Hours Submitted</t>
+  </si>
+  <si>
+    <t>shift hours submitted</t>
+  </si>
+  <si>
+    <t>horas sometidas de turno</t>
+  </si>
+  <si>
+    <t>Horas Sometidas para la Nómina</t>
+  </si>
+  <si>
+    <t>Semana de nómina</t>
+  </si>
+  <si>
+    <t>Hrs de Reparación</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -1348,13 +1345,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,13 +1387,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,13 +1401,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1415,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1429,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,13 +1443,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1457,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,13 +1471,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,13 +1499,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,13 +1513,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,13 +1527,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,13 +1541,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,13 +1555,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,13 +1569,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,13 +1583,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,13 +1597,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,13 +1653,13 @@
         <v>17</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,13 +1667,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,13 +1681,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,13 +1695,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,13 +1709,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,13 +1723,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,7 +1743,7 @@
         <v>33</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,13 +1751,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,13 +1765,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -1782,13 +1779,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,13 +1793,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,13 +1807,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,13 +1821,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,13 +1835,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,13 +1849,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,13 +1863,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,13 +1877,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,13 +1891,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,13 +1905,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,7 +1925,7 @@
         <v>46</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,7 +1939,7 @@
         <v>47</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,13 +1947,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,13 +1961,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,13 +1975,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,13 +1989,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,13 +2003,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2020,13 +2017,13 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,7 +2037,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,13 +2045,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2062,13 +2059,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,13 +2073,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -2090,13 +2087,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,13 +2101,13 @@
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,13 +2115,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,13 +2129,13 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,13 +2143,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,13 +2157,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,13 +2171,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,13 +2185,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2202,13 +2199,13 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,13 +2213,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,13 +2227,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,13 +2241,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,13 +2255,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,13 +2269,13 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,13 +2283,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,13 +2297,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,13 +2311,13 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,13 +2325,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,13 +2339,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,13 +2353,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2370,13 +2367,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,13 +2381,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,13 +2395,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,13 +2409,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,209 +2423,209 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
